--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.214609</v>
+        <v>1.991853333333333</v>
       </c>
       <c r="N2">
-        <v>3.643827</v>
+        <v>5.97556</v>
       </c>
       <c r="O2">
-        <v>0.0200030946981306</v>
+        <v>0.02613402671393343</v>
       </c>
       <c r="P2">
-        <v>0.0200030946981306</v>
+        <v>0.02613402671393343</v>
       </c>
       <c r="Q2">
-        <v>2.163736862173333</v>
+        <v>3.548340644088888</v>
       </c>
       <c r="R2">
-        <v>19.47363175956</v>
+        <v>31.9350657968</v>
       </c>
       <c r="S2">
-        <v>0.01968328025029955</v>
+        <v>0.02571618940179495</v>
       </c>
       <c r="T2">
-        <v>0.01968328025029955</v>
+        <v>0.02571618940179494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.40937933333333</v>
+        <v>36.19366066666667</v>
       </c>
       <c r="N3">
-        <v>82.228138</v>
+        <v>108.580982</v>
       </c>
       <c r="O3">
-        <v>0.4513982774881879</v>
+        <v>0.4748773812350852</v>
       </c>
       <c r="P3">
-        <v>0.4513982774881879</v>
+        <v>0.4748773812350851</v>
       </c>
       <c r="Q3">
-        <v>48.82779926118222</v>
+        <v>64.47635227588444</v>
       </c>
       <c r="R3">
-        <v>439.4501933506399</v>
+        <v>580.2871704829599</v>
       </c>
       <c r="S3">
-        <v>0.4441812096771625</v>
+        <v>0.4672849236799377</v>
       </c>
       <c r="T3">
-        <v>0.4441812096771625</v>
+        <v>0.4672849236799376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -679,34 +679,34 @@
         <v>0.9840117515485773</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2663316666666667</v>
+        <v>6.06671</v>
       </c>
       <c r="N4">
-        <v>0.798995</v>
+        <v>18.20013</v>
       </c>
       <c r="O4">
-        <v>0.004386150233897729</v>
+        <v>0.07959800982954926</v>
       </c>
       <c r="P4">
-        <v>0.004386150233897729</v>
+        <v>0.07959800982954925</v>
       </c>
       <c r="Q4">
-        <v>0.4744503331777778</v>
+        <v>10.80739897293333</v>
       </c>
       <c r="R4">
-        <v>4.2700529986</v>
+        <v>97.26659075639999</v>
       </c>
       <c r="S4">
-        <v>0.004316023374212906</v>
+        <v>0.07832537707215564</v>
       </c>
       <c r="T4">
-        <v>0.004316023374212906</v>
+        <v>0.07832537707215563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.799355333333334</v>
+        <v>31.96463133333333</v>
       </c>
       <c r="N5">
-        <v>17.398066</v>
+        <v>95.893894</v>
       </c>
       <c r="O5">
-        <v>0.09550814617772091</v>
+        <v>0.4193905822214322</v>
       </c>
       <c r="P5">
-        <v>0.09550814617772091</v>
+        <v>0.4193905822214321</v>
       </c>
       <c r="Q5">
-        <v>10.33112624027556</v>
+        <v>56.94264664736888</v>
       </c>
       <c r="R5">
-        <v>92.98013616247999</v>
+        <v>512.48381982632</v>
       </c>
       <c r="S5">
-        <v>0.09398113820749672</v>
+        <v>0.4126852613946891</v>
       </c>
       <c r="T5">
-        <v>0.09398113820749672</v>
+        <v>0.412685261394689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -782,25 +782,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.781426666666666</v>
+        <v>0.02894466666666666</v>
       </c>
       <c r="H6">
-        <v>5.344279999999999</v>
+        <v>0.08683399999999999</v>
       </c>
       <c r="I6">
-        <v>0.9840117515485773</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="J6">
-        <v>0.9840117515485773</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.031379</v>
+        <v>1.991853333333333</v>
       </c>
       <c r="N6">
-        <v>78.094137</v>
+        <v>5.97556</v>
       </c>
       <c r="O6">
-        <v>0.4287043314020629</v>
+        <v>0.02613402671393343</v>
       </c>
       <c r="P6">
-        <v>0.4287043314020629</v>
+        <v>0.02613402671393343</v>
       </c>
       <c r="Q6">
-        <v>46.37299272070666</v>
+        <v>0.05765353078222221</v>
       </c>
       <c r="R6">
-        <v>417.35693448636</v>
+        <v>0.5188817770399999</v>
       </c>
       <c r="S6">
-        <v>0.4218501000394057</v>
+        <v>0.000417837312138485</v>
       </c>
       <c r="T6">
-        <v>0.4218501000394057</v>
+        <v>0.000417837312138485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02894466666666667</v>
+        <v>0.02894466666666666</v>
       </c>
       <c r="H7">
-        <v>0.08683400000000001</v>
+        <v>0.08683399999999999</v>
       </c>
       <c r="I7">
-        <v>0.01598824845142268</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="J7">
-        <v>0.01598824845142268</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.214609</v>
+        <v>36.19366066666667</v>
       </c>
       <c r="N7">
-        <v>3.643827</v>
+        <v>108.580982</v>
       </c>
       <c r="O7">
-        <v>0.0200030946981306</v>
+        <v>0.4748773812350852</v>
       </c>
       <c r="P7">
-        <v>0.0200030946981306</v>
+        <v>0.4748773812350851</v>
       </c>
       <c r="Q7">
-        <v>0.03515645263533334</v>
+        <v>1.047613443443111</v>
       </c>
       <c r="R7">
-        <v>0.3164080737180001</v>
+        <v>9.428520990988</v>
       </c>
       <c r="S7">
-        <v>0.0003198144478310477</v>
+        <v>0.007592457555147505</v>
       </c>
       <c r="T7">
-        <v>0.0003198144478310478</v>
+        <v>0.007592457555147504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02894466666666667</v>
+        <v>0.02894466666666666</v>
       </c>
       <c r="H8">
-        <v>0.08683400000000001</v>
+        <v>0.08683399999999999</v>
       </c>
       <c r="I8">
-        <v>0.01598824845142268</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="J8">
-        <v>0.01598824845142268</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.40937933333333</v>
+        <v>6.06671</v>
       </c>
       <c r="N8">
-        <v>82.228138</v>
+        <v>18.20013</v>
       </c>
       <c r="O8">
-        <v>0.4513982774881879</v>
+        <v>0.07959800982954926</v>
       </c>
       <c r="P8">
-        <v>0.4513982774881879</v>
+        <v>0.07959800982954925</v>
       </c>
       <c r="Q8">
-        <v>0.7933553483435557</v>
+        <v>0.1755988987133333</v>
       </c>
       <c r="R8">
-        <v>7.140198135092001</v>
+        <v>1.58039008842</v>
       </c>
       <c r="S8">
-        <v>0.007217067811025384</v>
+        <v>0.001272632757393618</v>
       </c>
       <c r="T8">
-        <v>0.007217067811025384</v>
+        <v>0.001272632757393618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,170 +977,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02894466666666667</v>
+        <v>0.02894466666666666</v>
       </c>
       <c r="H9">
-        <v>0.08683400000000001</v>
+        <v>0.08683399999999999</v>
       </c>
       <c r="I9">
-        <v>0.01598824845142268</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="J9">
-        <v>0.01598824845142268</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2663316666666667</v>
+        <v>31.96463133333333</v>
       </c>
       <c r="N9">
-        <v>0.798995</v>
+        <v>95.893894</v>
       </c>
       <c r="O9">
-        <v>0.004386150233897729</v>
+        <v>0.4193905822214322</v>
       </c>
       <c r="P9">
-        <v>0.004386150233897729</v>
+        <v>0.4193905822214321</v>
       </c>
       <c r="Q9">
-        <v>0.007708881314444446</v>
+        <v>0.9252055990662221</v>
       </c>
       <c r="R9">
-        <v>0.06937993183000001</v>
+        <v>8.326850391596</v>
       </c>
       <c r="S9">
-        <v>7.012685968482257E-05</v>
+        <v>0.006705320826743066</v>
       </c>
       <c r="T9">
-        <v>7.012685968482257E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02894466666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.08683400000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.01598824845142268</v>
-      </c>
-      <c r="J10">
-        <v>0.01598824845142268</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.799355333333334</v>
-      </c>
-      <c r="N10">
-        <v>17.398066</v>
-      </c>
-      <c r="O10">
-        <v>0.09550814617772091</v>
-      </c>
-      <c r="P10">
-        <v>0.09550814617772091</v>
-      </c>
-      <c r="Q10">
-        <v>0.1678604070048889</v>
-      </c>
-      <c r="R10">
-        <v>1.510743663044</v>
-      </c>
-      <c r="S10">
-        <v>0.001527007970224197</v>
-      </c>
-      <c r="T10">
-        <v>0.001527007970224197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02894466666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.08683400000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.01598824845142268</v>
-      </c>
-      <c r="J11">
-        <v>0.01598824845142268</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>26.031379</v>
-      </c>
-      <c r="N11">
-        <v>78.094137</v>
-      </c>
-      <c r="O11">
-        <v>0.4287043314020629</v>
-      </c>
-      <c r="P11">
-        <v>0.4287043314020629</v>
-      </c>
-      <c r="Q11">
-        <v>0.7534695880286668</v>
-      </c>
-      <c r="R11">
-        <v>6.781226292258001</v>
-      </c>
-      <c r="S11">
-        <v>0.006854231362657226</v>
-      </c>
-      <c r="T11">
-        <v>0.006854231362657227</v>
+        <v>0.006705320826743065</v>
       </c>
     </row>
   </sheetData>
